--- a/ECON13310/Q_GDP.xlsx
+++ b/ECON13310/Q_GDP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Galvez Soriano\Documents\Teaching\ECON13310\Lectures\L15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E274232-2114-4DB0-B5D1-9CC8A96C3A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11773890-B6AF-4D5F-8817-2C41485211BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{939685C7-5FFB-4D41-92E6-3A3F06F690F5}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="GDP" sheetId="1" r:id="rId1"/>
     <sheet name="L.GDP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -158,13 +155,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,1014 +178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="GDP"/>
-      <sheetName val="Deflator"/>
-      <sheetName val="unemployment"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="E1" t="str">
-            <v>Annual GDP</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Trend</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Percentage deviation</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Change in inflation</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>unemp_gap</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>-1.5634909062796361E-2</v>
-          </cell>
-          <cell r="J15">
-            <v>-1.2045827326123693E-2</v>
-          </cell>
-          <cell r="M15">
-            <v>-0.47666666666666568</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>-1.8518961508336276</v>
-          </cell>
-          <cell r="J16">
-            <v>-0.29577358562731249</v>
-          </cell>
-          <cell r="M16">
-            <v>0.91333333333333311</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>-0.16384522050001399</v>
-          </cell>
-          <cell r="J17">
-            <v>0.14842261562559855</v>
-          </cell>
-          <cell r="M17">
-            <v>-0.15333333333333332</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18">
-            <v>-0.89458392382265761</v>
-          </cell>
-          <cell r="J18">
-            <v>-6.5017263537869852E-2</v>
-          </cell>
-          <cell r="M18">
-            <v>0.12833333333333385</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19">
-            <v>-1.0244878810945746</v>
-          </cell>
-          <cell r="J19">
-            <v>0.37369110359721791</v>
-          </cell>
-          <cell r="M19">
-            <v>0.22499999999999964</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20">
-            <v>0.24176354299374336</v>
-          </cell>
-          <cell r="J20">
-            <v>0.30896059932237208</v>
-          </cell>
-          <cell r="M20">
-            <v>-7.9999999999999183E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21">
-            <v>1.5360991074659012</v>
-          </cell>
-          <cell r="J21">
-            <v>0.97468244402256765</v>
-          </cell>
-          <cell r="M21">
-            <v>-0.38000000000000034</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22">
-            <v>-0.34758529091937956</v>
-          </cell>
-          <cell r="J22">
-            <v>9.3632044369185152E-2</v>
-          </cell>
-          <cell r="M22">
-            <v>3.3333333333329662E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23">
-            <v>1.1076690835849781</v>
-          </cell>
-          <cell r="J23">
-            <v>1.3613060970332436</v>
-          </cell>
-          <cell r="M23">
-            <v>-0.37500000000000044</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24">
-            <v>1.4055429348420088</v>
-          </cell>
-          <cell r="J24">
-            <v>0.64099445609346883</v>
-          </cell>
-          <cell r="M24">
-            <v>-0.87333333333333352</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25">
-            <v>-1.6953802679001466</v>
-          </cell>
-          <cell r="J25">
-            <v>0.38111324421759019</v>
-          </cell>
-          <cell r="M25">
-            <v>0.26666666666666661</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26">
-            <v>-1.9414499916966852</v>
-          </cell>
-          <cell r="J26">
-            <v>-0.21552921677796544</v>
-          </cell>
-          <cell r="M26">
-            <v>0.97333333333333361</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27">
-            <v>0.46101487737867636</v>
-          </cell>
-          <cell r="J27">
-            <v>-0.73937674045330137</v>
-          </cell>
-          <cell r="M27">
-            <v>0.19333333333333425</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28">
-            <v>3.4553629604614065</v>
-          </cell>
-          <cell r="J28">
-            <v>1.1489894073037465</v>
-          </cell>
-          <cell r="M28">
-            <v>-1.246666666666667</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29">
-            <v>-0.13575168840946827</v>
-          </cell>
-          <cell r="J29">
-            <v>3.5242140841135638</v>
-          </cell>
-          <cell r="M29">
-            <v>-0.81333333333333169</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30">
-            <v>-3.2144552641409598</v>
-          </cell>
-          <cell r="J30">
-            <v>0.26290216533615407</v>
-          </cell>
-          <cell r="M30">
-            <v>1.7299999999999995</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31">
-            <v>-0.99205091181183791</v>
-          </cell>
-          <cell r="J31">
-            <v>-3.7602475501028243</v>
-          </cell>
-          <cell r="M31">
-            <v>0.71333333333333204</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32">
-            <v>-0.13689326708781149</v>
-          </cell>
-          <cell r="J32">
-            <v>0.70847243105618407</v>
-          </cell>
-          <cell r="M32">
-            <v>2.1666666666667389E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33">
-            <v>1.7523186570463871</v>
-          </cell>
-          <cell r="J33">
-            <v>0.82118673837254796</v>
-          </cell>
-          <cell r="M33">
-            <v>-0.7016666666666671</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34">
-            <v>1.8753117183937593</v>
-          </cell>
-          <cell r="J34">
-            <v>1.2653371161808202</v>
-          </cell>
-          <cell r="M34">
-            <v>-0.90166666666666728</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35">
-            <v>-0.13277482049866765</v>
-          </cell>
-          <cell r="J35">
-            <v>0.73214599945467995</v>
-          </cell>
-          <cell r="M35">
-            <v>-0.10833333333333339</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>0.76655247314542141</v>
-          </cell>
-          <cell r="J36">
-            <v>0.43307913927961295</v>
-          </cell>
-          <cell r="M36">
-            <v>-0.37333333333333307</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37">
-            <v>-3.4539621398436458</v>
-          </cell>
-          <cell r="J37">
-            <v>-3.2870545027450229</v>
-          </cell>
-          <cell r="M37">
-            <v>1.3866666666666649</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38">
-            <v>-2.3311799354879157</v>
-          </cell>
-          <cell r="J38">
-            <v>-2.2584091847475785</v>
-          </cell>
-          <cell r="M38">
-            <v>1.2750000000000004</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39">
-            <v>1.1402994406464013</v>
-          </cell>
-          <cell r="J39">
-            <v>-0.31177679724221363</v>
-          </cell>
-          <cell r="M39">
-            <v>-0.69333333333333069</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40">
-            <v>0.80316185739444468</v>
-          </cell>
-          <cell r="J40">
-            <v>-0.44218810514500273</v>
-          </cell>
-          <cell r="M40">
-            <v>-0.30333333333333368</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41">
-            <v>-0.13347517272860615</v>
-          </cell>
-          <cell r="J41">
-            <v>-1.1516405765277238</v>
-          </cell>
-          <cell r="M41">
-            <v>0.32666666666666622</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42">
-            <v>-0.45116556688077314</v>
-          </cell>
-          <cell r="J42">
-            <v>0.46560121475855976</v>
-          </cell>
-          <cell r="M42">
-            <v>-4.8333333333332895E-2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43">
-            <v>0.3864250651567544</v>
-          </cell>
-          <cell r="J43">
-            <v>1.0485813130091559</v>
-          </cell>
-          <cell r="M43">
-            <v>-0.41666666666666696</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44">
-            <v>1.4796246764618215</v>
-          </cell>
-          <cell r="J44">
-            <v>0.39431591049294834</v>
-          </cell>
-          <cell r="M44">
-            <v>-0.62000000000000011</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>1990</v>
-          </cell>
-          <cell r="E45">
-            <v>10055.128500000001</v>
-          </cell>
-          <cell r="F45">
-            <v>9977.168450000001</v>
-          </cell>
-          <cell r="H45">
-            <v>0.78138452197827402</v>
-          </cell>
-          <cell r="J45">
-            <v>-0.17769844388177969</v>
-          </cell>
-          <cell r="M45">
-            <v>-0.52500000000000036</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>1991</v>
-          </cell>
-          <cell r="E46">
-            <v>10044.237499999999</v>
-          </cell>
-          <cell r="F46">
-            <v>10210.118850000001</v>
-          </cell>
-          <cell r="H46">
-            <v>-1.6246759948342959</v>
-          </cell>
-          <cell r="J46">
-            <v>-0.36272145117075549</v>
-          </cell>
-          <cell r="M46">
-            <v>0.42499999999999893</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>1992</v>
-          </cell>
-          <cell r="E47">
-            <v>10398.046250000001</v>
-          </cell>
-          <cell r="F47">
-            <v>10459.247449999999</v>
-          </cell>
-          <cell r="H47">
-            <v>-0.5851396125062297</v>
-          </cell>
-          <cell r="J47">
-            <v>-1.1022436794407175</v>
-          </cell>
-          <cell r="M47">
-            <v>0.8983333333333352</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>1993</v>
-          </cell>
-          <cell r="E48">
-            <v>10684.178749999999</v>
-          </cell>
-          <cell r="F48">
-            <v>10730.824199999999</v>
-          </cell>
-          <cell r="H48">
-            <v>-0.43468655464507555</v>
-          </cell>
-          <cell r="J48">
-            <v>9.2761857705259132E-2</v>
-          </cell>
-          <cell r="M48">
-            <v>0.3199999999999994</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>1994</v>
-          </cell>
-          <cell r="E49">
-            <v>11114.64625</v>
-          </cell>
-          <cell r="F49">
-            <v>11090.6965</v>
-          </cell>
-          <cell r="H49">
-            <v>0.21594450808386803</v>
-          </cell>
-          <cell r="J49">
-            <v>-0.23719026160147205</v>
-          </cell>
-          <cell r="M49">
-            <v>-0.20000000000000018</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>1995</v>
-          </cell>
-          <cell r="E50">
-            <v>11413.01225</v>
-          </cell>
-          <cell r="F50">
-            <v>11485.147150000001</v>
-          </cell>
-          <cell r="H50">
-            <v>-0.62807118670657103</v>
-          </cell>
-          <cell r="J50">
-            <v>-3.6968359174993637E-2</v>
-          </cell>
-          <cell r="M50">
-            <v>-0.19833333333333325</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>1996</v>
-          </cell>
-          <cell r="E51">
-            <v>11843.599</v>
-          </cell>
-          <cell r="F51">
-            <v>11933.286550000001</v>
-          </cell>
-          <cell r="H51">
-            <v>-0.75157459451101971</v>
-          </cell>
-          <cell r="J51">
-            <v>-0.26716313040655582</v>
-          </cell>
-          <cell r="M51">
-            <v>0.10000000000000053</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52">
-            <v>1997</v>
-          </cell>
-          <cell r="E52">
-            <v>12370.299500000001</v>
-          </cell>
-          <cell r="F52">
-            <v>12419.112100000002</v>
-          </cell>
-          <cell r="H52">
-            <v>-0.39304420160601578</v>
-          </cell>
-          <cell r="J52">
-            <v>-0.10477348496855665</v>
-          </cell>
-          <cell r="M52">
-            <v>9.9999999999988987E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>1998</v>
-          </cell>
-          <cell r="E53">
-            <v>12924.875749999999</v>
-          </cell>
-          <cell r="F53">
-            <v>12955.716250000001</v>
-          </cell>
-          <cell r="H53">
-            <v>-0.23804550365945273</v>
-          </cell>
-          <cell r="J53">
-            <v>-0.60180119725843362</v>
-          </cell>
-          <cell r="M53">
-            <v>-0.10666666666666735</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>1999</v>
-          </cell>
-          <cell r="E54">
-            <v>13543.774000000001</v>
-          </cell>
-          <cell r="F54">
-            <v>13433.14165</v>
-          </cell>
-          <cell r="H54">
-            <v>0.8235776327126102</v>
-          </cell>
-          <cell r="J54">
-            <v>0.29128813457686142</v>
-          </cell>
-          <cell r="M54">
-            <v>-0.25666666666666593</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55">
-            <v>2000</v>
-          </cell>
-          <cell r="E55">
-            <v>14096.032999999999</v>
-          </cell>
-          <cell r="F55">
-            <v>13853.624050000002</v>
-          </cell>
-          <cell r="H55">
-            <v>1.7497872695628494</v>
-          </cell>
-          <cell r="J55">
-            <v>0.85073448692245535</v>
-          </cell>
-          <cell r="M55">
-            <v>-0.67500000000000115</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56">
-            <v>2001</v>
-          </cell>
-          <cell r="E56">
-            <v>14230.726000000001</v>
-          </cell>
-          <cell r="F56">
-            <v>14244.1114</v>
-          </cell>
-          <cell r="H56">
-            <v>-9.3971463885063472E-2</v>
-          </cell>
-          <cell r="J56">
-            <v>-1.3058989836167711E-2</v>
-          </cell>
-          <cell r="M56">
-            <v>-0.19833333333333414</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57">
-            <v>2002</v>
-          </cell>
-          <cell r="E57">
-            <v>14472.711500000001</v>
-          </cell>
-          <cell r="F57">
-            <v>14625.308049999998</v>
-          </cell>
-          <cell r="H57">
-            <v>-1.0433732368460888</v>
-          </cell>
-          <cell r="J57">
-            <v>-0.69915886209444</v>
-          </cell>
-          <cell r="M57">
-            <v>0.57833333333333403</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58">
-            <v>2003</v>
-          </cell>
-          <cell r="E58">
-            <v>14877.3125</v>
-          </cell>
-          <cell r="F58">
-            <v>15003.692950000001</v>
-          </cell>
-          <cell r="H58">
-            <v>-0.84232895475244018</v>
-          </cell>
-          <cell r="J58">
-            <v>0.42118772593868758</v>
-          </cell>
-          <cell r="M58">
-            <v>0.56333333333333435</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59">
-            <v>2004</v>
-          </cell>
-          <cell r="E59">
-            <v>15449.757249999999</v>
-          </cell>
-          <cell r="F59">
-            <v>15444.177250000002</v>
-          </cell>
-          <cell r="H59">
-            <v>3.6130121466951493E-2</v>
-          </cell>
-          <cell r="J59">
-            <v>0.71495866210116166</v>
-          </cell>
-          <cell r="M59">
-            <v>0.13999999999999968</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60">
-            <v>2005</v>
-          </cell>
-          <cell r="E60">
-            <v>15987.9575</v>
-          </cell>
-          <cell r="F60">
-            <v>15902.124050000002</v>
-          </cell>
-          <cell r="H60">
-            <v>0.53976091325987519</v>
-          </cell>
-          <cell r="J60">
-            <v>0.44551830354642163</v>
-          </cell>
-          <cell r="M60">
-            <v>-8.5000000000000853E-2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61">
-            <v>2006</v>
-          </cell>
-          <cell r="E61">
-            <v>16433.147499999999</v>
-          </cell>
-          <cell r="F61">
-            <v>16282.958499999999</v>
-          </cell>
-          <cell r="H61">
-            <v>0.92236923652418767</v>
-          </cell>
-          <cell r="J61">
-            <v>-5.1148468805739533E-2</v>
-          </cell>
-          <cell r="M61">
-            <v>-0.52166666666666739</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62">
-            <v>2007</v>
-          </cell>
-          <cell r="E62">
-            <v>16762.445500000002</v>
-          </cell>
-          <cell r="F62">
-            <v>16462.829149999998</v>
-          </cell>
-          <cell r="H62">
-            <v>1.8199566263493898</v>
-          </cell>
-          <cell r="J62">
-            <v>-0.3741561681380734</v>
-          </cell>
-          <cell r="M62">
-            <v>-1.2616666666666658</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63">
-            <v>2008</v>
-          </cell>
-          <cell r="E63">
-            <v>16781.48475</v>
-          </cell>
-          <cell r="F63">
-            <v>16623.187750000001</v>
-          </cell>
-          <cell r="H63">
-            <v>0.95226621019183677</v>
-          </cell>
-          <cell r="J63">
-            <v>-0.78255106386806439</v>
-          </cell>
-          <cell r="M63">
-            <v>-0.98333333333333428</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64">
-            <v>2009</v>
-          </cell>
-          <cell r="E64">
-            <v>16349.110500000001</v>
-          </cell>
-          <cell r="F64">
-            <v>16747.040350000003</v>
-          </cell>
-          <cell r="H64">
-            <v>-2.3761204468585531</v>
-          </cell>
-          <cell r="J64">
-            <v>-1.3101091150769184</v>
-          </cell>
-          <cell r="M64">
-            <v>1.634999999999998</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65">
-            <v>2010</v>
-          </cell>
-          <cell r="E65">
-            <v>16789.750500000002</v>
-          </cell>
-          <cell r="F65">
-            <v>16883.1031</v>
-          </cell>
-          <cell r="H65">
-            <v>-0.55293508217691534</v>
-          </cell>
-          <cell r="J65">
-            <v>0.59809605004443878</v>
-          </cell>
-          <cell r="M65">
-            <v>1.2683333333333326</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66">
-            <v>2011</v>
-          </cell>
-          <cell r="E66">
-            <v>17052.410499999998</v>
-          </cell>
-          <cell r="F66">
-            <v>17089.239550000002</v>
-          </cell>
-          <cell r="H66">
-            <v>-0.21551017464673503</v>
-          </cell>
-          <cell r="J66">
-            <v>0.8478289651993931</v>
-          </cell>
-          <cell r="M66">
-            <v>0.28166666666666629</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67">
-            <v>2012</v>
-          </cell>
-          <cell r="E67">
-            <v>17442.759250000003</v>
-          </cell>
-          <cell r="F67">
-            <v>17471.760300000002</v>
-          </cell>
-          <cell r="H67">
-            <v>-0.16598814030203321</v>
-          </cell>
-          <cell r="J67">
-            <v>-0.20019746044501741</v>
-          </cell>
-          <cell r="M67">
-            <v>4.8333333333333783E-2</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68">
-            <v>2013</v>
-          </cell>
-          <cell r="E68">
-            <v>17812.166999999998</v>
-          </cell>
-          <cell r="F68">
-            <v>17873.734600000003</v>
-          </cell>
-          <cell r="H68">
-            <v>-0.34445851064615091</v>
-          </cell>
-          <cell r="J68">
-            <v>-0.16069120463269027</v>
-          </cell>
-          <cell r="M68">
-            <v>0.19833333333333325</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69">
-            <v>2014</v>
-          </cell>
-          <cell r="E69">
-            <v>18261.714249999997</v>
-          </cell>
-          <cell r="F69">
-            <v>18291.586950000004</v>
-          </cell>
-          <cell r="H69">
-            <v>-0.16331387802307204</v>
-          </cell>
-          <cell r="J69">
-            <v>3.9048261676266627E-2</v>
-          </cell>
-          <cell r="M69">
-            <v>-0.1899999999999995</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>2015</v>
-          </cell>
-          <cell r="E70">
-            <v>18799.622000000003</v>
-          </cell>
-          <cell r="F70">
-            <v>18725.455599999998</v>
-          </cell>
-          <cell r="H70">
-            <v>0.39607260610527162</v>
-          </cell>
-          <cell r="J70">
-            <v>-0.81281789472136268</v>
-          </cell>
-          <cell r="M70">
-            <v>-0.33000000000000096</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71">
-            <v>2016</v>
-          </cell>
-          <cell r="E71">
-            <v>19141.67225</v>
-          </cell>
-          <cell r="F71">
-            <v>19201.80125</v>
-          </cell>
-          <cell r="H71">
-            <v>-0.31314249750398193</v>
-          </cell>
-          <cell r="J71">
-            <v>2.2290704278171702E-2</v>
-          </cell>
-          <cell r="M71">
-            <v>-3.6666666666667069E-2</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72">
-            <v>2017</v>
-          </cell>
-          <cell r="E72">
-            <v>19612.102500000001</v>
-          </cell>
-          <cell r="F72">
-            <v>19687.875749999999</v>
-          </cell>
-          <cell r="H72">
-            <v>-0.38487265443047292</v>
-          </cell>
-          <cell r="J72">
-            <v>0.83998306862873573</v>
-          </cell>
-          <cell r="M72">
-            <v>-5.6666666666666643E-2</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>2018</v>
-          </cell>
-          <cell r="E73">
-            <v>20193.895249999998</v>
-          </cell>
-          <cell r="F73">
-            <v>19974.766149999999</v>
-          </cell>
-          <cell r="H73">
-            <v>1.097029614036299</v>
-          </cell>
-          <cell r="J73">
-            <v>0.50050519640476576</v>
-          </cell>
-          <cell r="M73">
-            <v>-1.0866666666666673</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74">
-            <v>2019</v>
-          </cell>
-          <cell r="E74">
-            <v>20692.086749999999</v>
-          </cell>
-          <cell r="F74">
-            <v>20427.9702</v>
-          </cell>
-          <cell r="H74">
-            <v>1.2929162683035382</v>
-          </cell>
-          <cell r="J74">
-            <v>-0.61245545551416036</v>
-          </cell>
-          <cell r="M74">
-            <v>-1.3983333333333325</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75">
-            <v>2020</v>
-          </cell>
-          <cell r="E75">
-            <v>20234.074000000001</v>
-          </cell>
-          <cell r="F75">
-            <v>20869.957000000002</v>
-          </cell>
-          <cell r="H75">
-            <v>-3.0468821761348219</v>
-          </cell>
-          <cell r="J75">
-            <v>-0.35845378223677837</v>
-          </cell>
-          <cell r="M75">
-            <v>3.163333333333334</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76">
-            <v>2021</v>
-          </cell>
-          <cell r="E76">
-            <v>21407.692500000001</v>
-          </cell>
-          <cell r="F76">
-            <v>21306.239450000001</v>
-          </cell>
-          <cell r="H76">
-            <v>0.47616591486302884</v>
-          </cell>
-          <cell r="J76">
-            <v>3.2651760315752565</v>
-          </cell>
-          <cell r="M76">
-            <v>0.47500000000000142</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,7 +483,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1506,825 +495,825 @@
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="179" max="179" width="5" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="7" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="16.28515625" customWidth="1"/>
-    <col min="435" max="435" width="5" bestFit="1" customWidth="1"/>
-    <col min="436" max="436" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="440" max="440" width="7" bestFit="1" customWidth="1"/>
-    <col min="441" max="441" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="444" max="444" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="16.28515625" customWidth="1"/>
-    <col min="691" max="691" width="5" bestFit="1" customWidth="1"/>
-    <col min="692" max="692" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="693" max="693" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="694" max="694" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="695" max="695" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="696" max="696" width="7" bestFit="1" customWidth="1"/>
-    <col min="697" max="697" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="698" max="698" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="699" max="699" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="700" max="700" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="701" max="701" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="702" max="702" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="703" max="703" width="16.28515625" customWidth="1"/>
-    <col min="947" max="947" width="5" bestFit="1" customWidth="1"/>
-    <col min="948" max="948" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="949" max="949" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="950" max="950" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="951" max="951" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="952" max="952" width="7" bestFit="1" customWidth="1"/>
-    <col min="953" max="953" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="954" max="954" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="955" max="955" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="956" max="956" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="957" max="957" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="958" max="958" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="959" max="959" width="16.28515625" customWidth="1"/>
-    <col min="1203" max="1203" width="5" bestFit="1" customWidth="1"/>
-    <col min="1204" max="1204" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="1205" max="1205" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="1206" max="1206" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="1207" max="1207" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="1208" max="1208" width="7" bestFit="1" customWidth="1"/>
-    <col min="1209" max="1209" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="1210" max="1210" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="1211" max="1211" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="1212" max="1212" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="1213" max="1213" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="1214" max="1214" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="1215" max="1215" width="16.28515625" customWidth="1"/>
-    <col min="1459" max="1459" width="5" bestFit="1" customWidth="1"/>
-    <col min="1460" max="1460" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="1461" max="1461" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="1462" max="1462" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="1463" max="1463" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="1464" max="1464" width="7" bestFit="1" customWidth="1"/>
-    <col min="1465" max="1465" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="1466" max="1466" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="1467" max="1467" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="1468" max="1468" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="1469" max="1469" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="1470" max="1470" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="1471" max="1471" width="16.28515625" customWidth="1"/>
-    <col min="1715" max="1715" width="5" bestFit="1" customWidth="1"/>
-    <col min="1716" max="1716" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="1717" max="1717" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="1718" max="1718" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="1719" max="1719" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="1720" max="1720" width="7" bestFit="1" customWidth="1"/>
-    <col min="1721" max="1721" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="1722" max="1722" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="1723" max="1723" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="1724" max="1724" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="1725" max="1725" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="1726" max="1726" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="1727" max="1727" width="16.28515625" customWidth="1"/>
-    <col min="1971" max="1971" width="5" bestFit="1" customWidth="1"/>
-    <col min="1972" max="1972" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="1973" max="1973" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="1974" max="1974" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="1975" max="1975" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="1976" max="1976" width="7" bestFit="1" customWidth="1"/>
-    <col min="1977" max="1977" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="1978" max="1978" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="1979" max="1979" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="1980" max="1980" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="1981" max="1981" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="1982" max="1982" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="1983" max="1983" width="16.28515625" customWidth="1"/>
-    <col min="2227" max="2227" width="5" bestFit="1" customWidth="1"/>
-    <col min="2228" max="2228" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2229" max="2229" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2230" max="2230" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2231" max="2231" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2232" max="2232" width="7" bestFit="1" customWidth="1"/>
-    <col min="2233" max="2233" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2234" max="2234" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2235" max="2235" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2236" max="2236" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2237" max="2237" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2238" max="2238" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2239" max="2239" width="16.28515625" customWidth="1"/>
-    <col min="2483" max="2483" width="5" bestFit="1" customWidth="1"/>
-    <col min="2484" max="2484" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2485" max="2485" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2486" max="2486" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2487" max="2487" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2488" max="2488" width="7" bestFit="1" customWidth="1"/>
-    <col min="2489" max="2489" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2490" max="2490" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2491" max="2491" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2492" max="2492" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2493" max="2493" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2494" max="2494" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2495" max="2495" width="16.28515625" customWidth="1"/>
-    <col min="2739" max="2739" width="5" bestFit="1" customWidth="1"/>
-    <col min="2740" max="2740" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2741" max="2741" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2742" max="2742" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2743" max="2743" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2744" max="2744" width="7" bestFit="1" customWidth="1"/>
-    <col min="2745" max="2745" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2746" max="2746" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2747" max="2747" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2748" max="2748" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2749" max="2749" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2750" max="2750" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2751" max="2751" width="16.28515625" customWidth="1"/>
-    <col min="2995" max="2995" width="5" bestFit="1" customWidth="1"/>
-    <col min="2996" max="2996" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2997" max="2997" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2998" max="2998" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2999" max="2999" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3000" max="3000" width="7" bestFit="1" customWidth="1"/>
-    <col min="3001" max="3001" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3002" max="3002" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3003" max="3003" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3004" max="3004" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3005" max="3005" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3006" max="3006" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3007" max="3007" width="16.28515625" customWidth="1"/>
-    <col min="3251" max="3251" width="5" bestFit="1" customWidth="1"/>
-    <col min="3252" max="3252" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3253" max="3253" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3254" max="3254" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3255" max="3255" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3256" max="3256" width="7" bestFit="1" customWidth="1"/>
-    <col min="3257" max="3257" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3258" max="3258" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3259" max="3259" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3260" max="3260" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3261" max="3261" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3262" max="3262" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3263" max="3263" width="16.28515625" customWidth="1"/>
-    <col min="3507" max="3507" width="5" bestFit="1" customWidth="1"/>
-    <col min="3508" max="3508" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3509" max="3509" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3510" max="3510" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3511" max="3511" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3512" max="3512" width="7" bestFit="1" customWidth="1"/>
-    <col min="3513" max="3513" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3514" max="3514" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3515" max="3515" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3516" max="3516" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3517" max="3517" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3518" max="3518" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3519" max="3519" width="16.28515625" customWidth="1"/>
-    <col min="3763" max="3763" width="5" bestFit="1" customWidth="1"/>
-    <col min="3764" max="3764" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3765" max="3765" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3766" max="3766" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3767" max="3767" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3768" max="3768" width="7" bestFit="1" customWidth="1"/>
-    <col min="3769" max="3769" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3770" max="3770" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3771" max="3771" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3772" max="3772" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3773" max="3773" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3774" max="3774" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3775" max="3775" width="16.28515625" customWidth="1"/>
-    <col min="4019" max="4019" width="5" bestFit="1" customWidth="1"/>
-    <col min="4020" max="4020" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4021" max="4021" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4022" max="4022" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4023" max="4023" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4024" max="4024" width="7" bestFit="1" customWidth="1"/>
-    <col min="4025" max="4025" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4026" max="4026" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4027" max="4027" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4028" max="4028" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4029" max="4029" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4030" max="4030" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4031" max="4031" width="16.28515625" customWidth="1"/>
-    <col min="4275" max="4275" width="5" bestFit="1" customWidth="1"/>
-    <col min="4276" max="4276" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4277" max="4277" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4278" max="4278" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4279" max="4279" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4280" max="4280" width="7" bestFit="1" customWidth="1"/>
-    <col min="4281" max="4281" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4282" max="4282" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4283" max="4283" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4284" max="4284" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4285" max="4285" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4286" max="4286" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4287" max="4287" width="16.28515625" customWidth="1"/>
-    <col min="4531" max="4531" width="5" bestFit="1" customWidth="1"/>
-    <col min="4532" max="4532" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4533" max="4533" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4534" max="4534" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4535" max="4535" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4536" max="4536" width="7" bestFit="1" customWidth="1"/>
-    <col min="4537" max="4537" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4538" max="4538" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4539" max="4539" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4540" max="4540" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4541" max="4541" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4542" max="4542" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4543" max="4543" width="16.28515625" customWidth="1"/>
-    <col min="4787" max="4787" width="5" bestFit="1" customWidth="1"/>
-    <col min="4788" max="4788" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4789" max="4789" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4790" max="4790" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4791" max="4791" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4792" max="4792" width="7" bestFit="1" customWidth="1"/>
-    <col min="4793" max="4793" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4794" max="4794" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4795" max="4795" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4796" max="4796" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4797" max="4797" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4798" max="4798" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4799" max="4799" width="16.28515625" customWidth="1"/>
-    <col min="5043" max="5043" width="5" bestFit="1" customWidth="1"/>
-    <col min="5044" max="5044" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5045" max="5045" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5046" max="5046" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5047" max="5047" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5048" max="5048" width="7" bestFit="1" customWidth="1"/>
-    <col min="5049" max="5049" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5050" max="5050" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5051" max="5051" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5052" max="5052" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5053" max="5053" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5054" max="5054" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5055" max="5055" width="16.28515625" customWidth="1"/>
-    <col min="5299" max="5299" width="5" bestFit="1" customWidth="1"/>
-    <col min="5300" max="5300" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5301" max="5301" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5302" max="5302" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5303" max="5303" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5304" max="5304" width="7" bestFit="1" customWidth="1"/>
-    <col min="5305" max="5305" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5306" max="5306" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5307" max="5307" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5308" max="5308" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5309" max="5309" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5310" max="5310" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5311" max="5311" width="16.28515625" customWidth="1"/>
-    <col min="5555" max="5555" width="5" bestFit="1" customWidth="1"/>
-    <col min="5556" max="5556" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5557" max="5557" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5558" max="5558" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5559" max="5559" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5560" max="5560" width="7" bestFit="1" customWidth="1"/>
-    <col min="5561" max="5561" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5562" max="5562" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5563" max="5563" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5564" max="5564" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5565" max="5565" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5566" max="5566" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5567" max="5567" width="16.28515625" customWidth="1"/>
-    <col min="5811" max="5811" width="5" bestFit="1" customWidth="1"/>
-    <col min="5812" max="5812" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5813" max="5813" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5814" max="5814" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5815" max="5815" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5816" max="5816" width="7" bestFit="1" customWidth="1"/>
-    <col min="5817" max="5817" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5818" max="5818" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5819" max="5819" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5820" max="5820" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5821" max="5821" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5822" max="5822" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5823" max="5823" width="16.28515625" customWidth="1"/>
-    <col min="6067" max="6067" width="5" bestFit="1" customWidth="1"/>
-    <col min="6068" max="6068" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6069" max="6069" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6070" max="6070" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6071" max="6071" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6072" max="6072" width="7" bestFit="1" customWidth="1"/>
-    <col min="6073" max="6073" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6074" max="6074" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6075" max="6075" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6076" max="6076" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6077" max="6077" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6078" max="6078" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6079" max="6079" width="16.28515625" customWidth="1"/>
-    <col min="6323" max="6323" width="5" bestFit="1" customWidth="1"/>
-    <col min="6324" max="6324" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6325" max="6325" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6326" max="6326" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6327" max="6327" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6328" max="6328" width="7" bestFit="1" customWidth="1"/>
-    <col min="6329" max="6329" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6330" max="6330" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6331" max="6331" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6332" max="6332" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6333" max="6333" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6334" max="6334" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6335" max="6335" width="16.28515625" customWidth="1"/>
-    <col min="6579" max="6579" width="5" bestFit="1" customWidth="1"/>
-    <col min="6580" max="6580" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6581" max="6581" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6582" max="6582" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6583" max="6583" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6584" max="6584" width="7" bestFit="1" customWidth="1"/>
-    <col min="6585" max="6585" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6586" max="6586" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6587" max="6587" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6588" max="6588" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6589" max="6589" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6590" max="6590" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6591" max="6591" width="16.28515625" customWidth="1"/>
-    <col min="6835" max="6835" width="5" bestFit="1" customWidth="1"/>
-    <col min="6836" max="6836" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6837" max="6837" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6838" max="6838" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6839" max="6839" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6840" max="6840" width="7" bestFit="1" customWidth="1"/>
-    <col min="6841" max="6841" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6842" max="6842" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6843" max="6843" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6844" max="6844" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6845" max="6845" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6846" max="6846" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6847" max="6847" width="16.28515625" customWidth="1"/>
-    <col min="7091" max="7091" width="5" bestFit="1" customWidth="1"/>
-    <col min="7092" max="7092" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7093" max="7093" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7094" max="7094" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7095" max="7095" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7096" max="7096" width="7" bestFit="1" customWidth="1"/>
-    <col min="7097" max="7097" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7098" max="7098" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7099" max="7099" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7100" max="7100" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7101" max="7101" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7102" max="7102" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7103" max="7103" width="16.28515625" customWidth="1"/>
-    <col min="7347" max="7347" width="5" bestFit="1" customWidth="1"/>
-    <col min="7348" max="7348" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7349" max="7349" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7350" max="7350" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7351" max="7351" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7352" max="7352" width="7" bestFit="1" customWidth="1"/>
-    <col min="7353" max="7353" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7354" max="7354" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7355" max="7355" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7356" max="7356" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7357" max="7357" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7358" max="7358" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7359" max="7359" width="16.28515625" customWidth="1"/>
-    <col min="7603" max="7603" width="5" bestFit="1" customWidth="1"/>
-    <col min="7604" max="7604" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7605" max="7605" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7606" max="7606" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7607" max="7607" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7608" max="7608" width="7" bestFit="1" customWidth="1"/>
-    <col min="7609" max="7609" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7610" max="7610" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7611" max="7611" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7612" max="7612" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7613" max="7613" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7614" max="7614" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7615" max="7615" width="16.28515625" customWidth="1"/>
-    <col min="7859" max="7859" width="5" bestFit="1" customWidth="1"/>
-    <col min="7860" max="7860" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7861" max="7861" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7862" max="7862" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7863" max="7863" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7864" max="7864" width="7" bestFit="1" customWidth="1"/>
-    <col min="7865" max="7865" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7866" max="7866" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7867" max="7867" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7868" max="7868" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7869" max="7869" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7870" max="7870" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7871" max="7871" width="16.28515625" customWidth="1"/>
-    <col min="8115" max="8115" width="5" bestFit="1" customWidth="1"/>
-    <col min="8116" max="8116" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8117" max="8117" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8118" max="8118" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8119" max="8119" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8120" max="8120" width="7" bestFit="1" customWidth="1"/>
-    <col min="8121" max="8121" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8122" max="8122" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8123" max="8123" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8124" max="8124" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8125" max="8125" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8126" max="8126" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8127" max="8127" width="16.28515625" customWidth="1"/>
-    <col min="8371" max="8371" width="5" bestFit="1" customWidth="1"/>
-    <col min="8372" max="8372" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8373" max="8373" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8374" max="8374" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8375" max="8375" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8376" max="8376" width="7" bestFit="1" customWidth="1"/>
-    <col min="8377" max="8377" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8378" max="8378" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8379" max="8379" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8380" max="8380" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8381" max="8381" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8382" max="8382" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8383" max="8383" width="16.28515625" customWidth="1"/>
-    <col min="8627" max="8627" width="5" bestFit="1" customWidth="1"/>
-    <col min="8628" max="8628" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8629" max="8629" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8630" max="8630" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8631" max="8631" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8632" max="8632" width="7" bestFit="1" customWidth="1"/>
-    <col min="8633" max="8633" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8634" max="8634" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8635" max="8635" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8636" max="8636" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8637" max="8637" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8638" max="8638" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8639" max="8639" width="16.28515625" customWidth="1"/>
-    <col min="8883" max="8883" width="5" bestFit="1" customWidth="1"/>
-    <col min="8884" max="8884" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8885" max="8885" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8886" max="8886" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8887" max="8887" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8888" max="8888" width="7" bestFit="1" customWidth="1"/>
-    <col min="8889" max="8889" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8890" max="8890" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8891" max="8891" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8892" max="8892" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8893" max="8893" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8894" max="8894" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8895" max="8895" width="16.28515625" customWidth="1"/>
-    <col min="9139" max="9139" width="5" bestFit="1" customWidth="1"/>
-    <col min="9140" max="9140" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9141" max="9141" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9142" max="9142" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9143" max="9143" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9144" max="9144" width="7" bestFit="1" customWidth="1"/>
-    <col min="9145" max="9145" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9146" max="9146" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9147" max="9147" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9148" max="9148" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9149" max="9149" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9150" max="9150" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9151" max="9151" width="16.28515625" customWidth="1"/>
-    <col min="9395" max="9395" width="5" bestFit="1" customWidth="1"/>
-    <col min="9396" max="9396" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9397" max="9397" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9398" max="9398" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9399" max="9399" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9400" max="9400" width="7" bestFit="1" customWidth="1"/>
-    <col min="9401" max="9401" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9402" max="9402" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9403" max="9403" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9404" max="9404" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9405" max="9405" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9406" max="9406" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9407" max="9407" width="16.28515625" customWidth="1"/>
-    <col min="9651" max="9651" width="5" bestFit="1" customWidth="1"/>
-    <col min="9652" max="9652" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9653" max="9653" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9654" max="9654" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9655" max="9655" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9656" max="9656" width="7" bestFit="1" customWidth="1"/>
-    <col min="9657" max="9657" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9658" max="9658" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9659" max="9659" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9660" max="9660" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9661" max="9661" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9662" max="9662" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9663" max="9663" width="16.28515625" customWidth="1"/>
-    <col min="9907" max="9907" width="5" bestFit="1" customWidth="1"/>
-    <col min="9908" max="9908" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9909" max="9909" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9910" max="9910" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9911" max="9911" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9912" max="9912" width="7" bestFit="1" customWidth="1"/>
-    <col min="9913" max="9913" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9914" max="9914" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9915" max="9915" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9916" max="9916" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9917" max="9917" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9918" max="9918" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9919" max="9919" width="16.28515625" customWidth="1"/>
-    <col min="10163" max="10163" width="5" bestFit="1" customWidth="1"/>
-    <col min="10164" max="10164" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10165" max="10165" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10166" max="10166" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10167" max="10167" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10168" max="10168" width="7" bestFit="1" customWidth="1"/>
-    <col min="10169" max="10169" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10170" max="10170" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10171" max="10171" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10172" max="10172" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10173" max="10173" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10174" max="10174" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10175" max="10175" width="16.28515625" customWidth="1"/>
-    <col min="10419" max="10419" width="5" bestFit="1" customWidth="1"/>
-    <col min="10420" max="10420" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10421" max="10421" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10422" max="10422" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10423" max="10423" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10424" max="10424" width="7" bestFit="1" customWidth="1"/>
-    <col min="10425" max="10425" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10426" max="10426" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10427" max="10427" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10428" max="10428" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10429" max="10429" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10430" max="10430" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10431" max="10431" width="16.28515625" customWidth="1"/>
-    <col min="10675" max="10675" width="5" bestFit="1" customWidth="1"/>
-    <col min="10676" max="10676" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10677" max="10677" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10678" max="10678" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10679" max="10679" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10680" max="10680" width="7" bestFit="1" customWidth="1"/>
-    <col min="10681" max="10681" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10682" max="10682" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10683" max="10683" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10684" max="10684" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10685" max="10685" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10686" max="10686" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10687" max="10687" width="16.28515625" customWidth="1"/>
-    <col min="10931" max="10931" width="5" bestFit="1" customWidth="1"/>
-    <col min="10932" max="10932" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10933" max="10933" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10934" max="10934" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10935" max="10935" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10936" max="10936" width="7" bestFit="1" customWidth="1"/>
-    <col min="10937" max="10937" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10938" max="10938" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10939" max="10939" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10940" max="10940" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10941" max="10941" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10942" max="10942" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10943" max="10943" width="16.28515625" customWidth="1"/>
-    <col min="11187" max="11187" width="5" bestFit="1" customWidth="1"/>
-    <col min="11188" max="11188" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11189" max="11189" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11190" max="11190" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11191" max="11191" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11192" max="11192" width="7" bestFit="1" customWidth="1"/>
-    <col min="11193" max="11193" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11194" max="11194" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11195" max="11195" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11196" max="11196" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11197" max="11197" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11198" max="11198" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11199" max="11199" width="16.28515625" customWidth="1"/>
-    <col min="11443" max="11443" width="5" bestFit="1" customWidth="1"/>
-    <col min="11444" max="11444" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11445" max="11445" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11446" max="11446" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11447" max="11447" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11448" max="11448" width="7" bestFit="1" customWidth="1"/>
-    <col min="11449" max="11449" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11450" max="11450" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11451" max="11451" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11452" max="11452" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11453" max="11453" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11454" max="11454" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11455" max="11455" width="16.28515625" customWidth="1"/>
-    <col min="11699" max="11699" width="5" bestFit="1" customWidth="1"/>
-    <col min="11700" max="11700" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11701" max="11701" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11702" max="11702" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11703" max="11703" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11704" max="11704" width="7" bestFit="1" customWidth="1"/>
-    <col min="11705" max="11705" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11706" max="11706" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11707" max="11707" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11708" max="11708" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11709" max="11709" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11710" max="11710" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11711" max="11711" width="16.28515625" customWidth="1"/>
-    <col min="11955" max="11955" width="5" bestFit="1" customWidth="1"/>
-    <col min="11956" max="11956" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11957" max="11957" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11958" max="11958" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11959" max="11959" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11960" max="11960" width="7" bestFit="1" customWidth="1"/>
-    <col min="11961" max="11961" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11962" max="11962" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11963" max="11963" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11964" max="11964" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11965" max="11965" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11966" max="11966" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11967" max="11967" width="16.28515625" customWidth="1"/>
-    <col min="12211" max="12211" width="5" bestFit="1" customWidth="1"/>
-    <col min="12212" max="12212" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12213" max="12213" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12214" max="12214" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12215" max="12215" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12216" max="12216" width="7" bestFit="1" customWidth="1"/>
-    <col min="12217" max="12217" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12218" max="12218" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12219" max="12219" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12220" max="12220" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12221" max="12221" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12222" max="12222" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12223" max="12223" width="16.28515625" customWidth="1"/>
-    <col min="12467" max="12467" width="5" bestFit="1" customWidth="1"/>
-    <col min="12468" max="12468" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12469" max="12469" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12470" max="12470" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12471" max="12471" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12472" max="12472" width="7" bestFit="1" customWidth="1"/>
-    <col min="12473" max="12473" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12474" max="12474" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12475" max="12475" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12476" max="12476" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12477" max="12477" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12478" max="12478" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12479" max="12479" width="16.28515625" customWidth="1"/>
-    <col min="12723" max="12723" width="5" bestFit="1" customWidth="1"/>
-    <col min="12724" max="12724" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12725" max="12725" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12726" max="12726" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12727" max="12727" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12728" max="12728" width="7" bestFit="1" customWidth="1"/>
-    <col min="12729" max="12729" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12730" max="12730" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12731" max="12731" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12732" max="12732" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12733" max="12733" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12734" max="12734" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12735" max="12735" width="16.28515625" customWidth="1"/>
-    <col min="12979" max="12979" width="5" bestFit="1" customWidth="1"/>
-    <col min="12980" max="12980" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12981" max="12981" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12982" max="12982" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12983" max="12983" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12984" max="12984" width="7" bestFit="1" customWidth="1"/>
-    <col min="12985" max="12985" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12986" max="12986" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12987" max="12987" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12988" max="12988" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12989" max="12989" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12990" max="12990" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12991" max="12991" width="16.28515625" customWidth="1"/>
-    <col min="13235" max="13235" width="5" bestFit="1" customWidth="1"/>
-    <col min="13236" max="13236" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13237" max="13237" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13238" max="13238" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13239" max="13239" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13240" max="13240" width="7" bestFit="1" customWidth="1"/>
-    <col min="13241" max="13241" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13242" max="13242" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13243" max="13243" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13244" max="13244" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13245" max="13245" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13246" max="13246" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13247" max="13247" width="16.28515625" customWidth="1"/>
-    <col min="13491" max="13491" width="5" bestFit="1" customWidth="1"/>
-    <col min="13492" max="13492" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13493" max="13493" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13494" max="13494" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13495" max="13495" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13496" max="13496" width="7" bestFit="1" customWidth="1"/>
-    <col min="13497" max="13497" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13498" max="13498" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13499" max="13499" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13500" max="13500" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13501" max="13501" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13502" max="13502" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13503" max="13503" width="16.28515625" customWidth="1"/>
-    <col min="13747" max="13747" width="5" bestFit="1" customWidth="1"/>
-    <col min="13748" max="13748" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13749" max="13749" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13750" max="13750" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13751" max="13751" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13752" max="13752" width="7" bestFit="1" customWidth="1"/>
-    <col min="13753" max="13753" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13754" max="13754" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13755" max="13755" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13756" max="13756" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13757" max="13757" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13758" max="13758" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13759" max="13759" width="16.28515625" customWidth="1"/>
-    <col min="14003" max="14003" width="5" bestFit="1" customWidth="1"/>
-    <col min="14004" max="14004" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14005" max="14005" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14006" max="14006" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14007" max="14007" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14008" max="14008" width="7" bestFit="1" customWidth="1"/>
-    <col min="14009" max="14009" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14010" max="14010" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14011" max="14011" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14012" max="14012" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14013" max="14013" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14014" max="14014" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14015" max="14015" width="16.28515625" customWidth="1"/>
-    <col min="14259" max="14259" width="5" bestFit="1" customWidth="1"/>
-    <col min="14260" max="14260" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14261" max="14261" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14262" max="14262" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14263" max="14263" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14264" max="14264" width="7" bestFit="1" customWidth="1"/>
-    <col min="14265" max="14265" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14266" max="14266" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14267" max="14267" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14268" max="14268" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14269" max="14269" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14270" max="14270" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14271" max="14271" width="16.28515625" customWidth="1"/>
-    <col min="14515" max="14515" width="5" bestFit="1" customWidth="1"/>
-    <col min="14516" max="14516" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14517" max="14517" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14518" max="14518" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14519" max="14519" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14520" max="14520" width="7" bestFit="1" customWidth="1"/>
-    <col min="14521" max="14521" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14522" max="14522" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14523" max="14523" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14524" max="14524" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14525" max="14525" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14526" max="14526" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14527" max="14527" width="16.28515625" customWidth="1"/>
-    <col min="14771" max="14771" width="5" bestFit="1" customWidth="1"/>
-    <col min="14772" max="14772" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14773" max="14773" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14774" max="14774" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14775" max="14775" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14776" max="14776" width="7" bestFit="1" customWidth="1"/>
-    <col min="14777" max="14777" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14778" max="14778" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14779" max="14779" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14780" max="14780" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14781" max="14781" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14782" max="14782" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14783" max="14783" width="16.28515625" customWidth="1"/>
-    <col min="15027" max="15027" width="5" bestFit="1" customWidth="1"/>
-    <col min="15028" max="15028" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15029" max="15029" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15030" max="15030" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="15031" max="15031" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15032" max="15032" width="7" bestFit="1" customWidth="1"/>
-    <col min="15033" max="15033" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15034" max="15034" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15035" max="15035" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15036" max="15036" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15037" max="15037" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15038" max="15038" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15039" max="15039" width="16.28515625" customWidth="1"/>
-    <col min="15283" max="15283" width="5" bestFit="1" customWidth="1"/>
-    <col min="15284" max="15284" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15285" max="15285" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15286" max="15286" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="15287" max="15287" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15288" max="15288" width="7" bestFit="1" customWidth="1"/>
-    <col min="15289" max="15289" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15290" max="15290" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15291" max="15291" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15292" max="15292" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15293" max="15293" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15294" max="15294" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15295" max="15295" width="16.28515625" customWidth="1"/>
-    <col min="15539" max="15539" width="5" bestFit="1" customWidth="1"/>
-    <col min="15540" max="15540" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15541" max="15541" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15542" max="15542" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="15543" max="15543" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15544" max="15544" width="7" bestFit="1" customWidth="1"/>
-    <col min="15545" max="15545" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15546" max="15546" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15547" max="15547" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15548" max="15548" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15549" max="15549" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15550" max="15550" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15551" max="15551" width="16.28515625" customWidth="1"/>
-    <col min="15795" max="15795" width="5" bestFit="1" customWidth="1"/>
-    <col min="15796" max="15796" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15797" max="15797" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15798" max="15798" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="15799" max="15799" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15800" max="15800" width="7" bestFit="1" customWidth="1"/>
-    <col min="15801" max="15801" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15802" max="15802" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15803" max="15803" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15804" max="15804" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15805" max="15805" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15806" max="15806" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15807" max="15807" width="16.28515625" customWidth="1"/>
-    <col min="16051" max="16051" width="5" bestFit="1" customWidth="1"/>
-    <col min="16052" max="16052" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="16053" max="16053" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16054" max="16054" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16055" max="16055" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16056" max="16056" width="7" bestFit="1" customWidth="1"/>
-    <col min="16057" max="16057" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16058" max="16058" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16059" max="16059" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="16060" max="16060" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16061" max="16061" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="16062" max="16062" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16063" max="16063" width="16.28515625" customWidth="1"/>
+    <col min="161" max="161" width="5" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="7" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="16.28515625" customWidth="1"/>
+    <col min="417" max="417" width="5" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="7" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="16.28515625" customWidth="1"/>
+    <col min="673" max="673" width="5" bestFit="1" customWidth="1"/>
+    <col min="674" max="674" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="675" max="675" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="676" max="676" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="677" max="677" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="678" max="678" width="7" bestFit="1" customWidth="1"/>
+    <col min="679" max="679" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="680" max="680" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="681" max="681" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="682" max="682" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="683" max="683" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="684" max="684" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="685" max="685" width="16.28515625" customWidth="1"/>
+    <col min="929" max="929" width="5" bestFit="1" customWidth="1"/>
+    <col min="930" max="930" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="931" max="931" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="932" max="932" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="933" max="933" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="934" max="934" width="7" bestFit="1" customWidth="1"/>
+    <col min="935" max="935" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="936" max="936" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="937" max="937" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="938" max="938" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="939" max="939" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="940" max="940" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="941" max="941" width="16.28515625" customWidth="1"/>
+    <col min="1185" max="1185" width="5" bestFit="1" customWidth="1"/>
+    <col min="1186" max="1186" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1187" max="1187" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1188" max="1188" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1189" max="1189" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1190" max="1190" width="7" bestFit="1" customWidth="1"/>
+    <col min="1191" max="1191" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1192" max="1192" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1193" max="1193" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1194" max="1194" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1195" max="1195" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1196" max="1196" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1197" max="1197" width="16.28515625" customWidth="1"/>
+    <col min="1441" max="1441" width="5" bestFit="1" customWidth="1"/>
+    <col min="1442" max="1442" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1443" max="1443" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1444" max="1444" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1445" max="1445" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1446" max="1446" width="7" bestFit="1" customWidth="1"/>
+    <col min="1447" max="1447" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1448" max="1448" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1449" max="1449" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1450" max="1450" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1451" max="1451" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1452" max="1452" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1453" max="1453" width="16.28515625" customWidth="1"/>
+    <col min="1697" max="1697" width="5" bestFit="1" customWidth="1"/>
+    <col min="1698" max="1698" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1699" max="1699" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1700" max="1700" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1701" max="1701" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1702" max="1702" width="7" bestFit="1" customWidth="1"/>
+    <col min="1703" max="1703" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1704" max="1704" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1705" max="1705" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1706" max="1706" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1707" max="1707" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1708" max="1708" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1709" max="1709" width="16.28515625" customWidth="1"/>
+    <col min="1953" max="1953" width="5" bestFit="1" customWidth="1"/>
+    <col min="1954" max="1954" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1955" max="1955" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1956" max="1956" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1957" max="1957" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1958" max="1958" width="7" bestFit="1" customWidth="1"/>
+    <col min="1959" max="1959" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1960" max="1960" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1961" max="1961" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1962" max="1962" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1963" max="1963" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1964" max="1964" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1965" max="1965" width="16.28515625" customWidth="1"/>
+    <col min="2209" max="2209" width="5" bestFit="1" customWidth="1"/>
+    <col min="2210" max="2210" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2211" max="2211" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2212" max="2212" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2213" max="2213" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2214" max="2214" width="7" bestFit="1" customWidth="1"/>
+    <col min="2215" max="2215" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2216" max="2216" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2217" max="2217" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2218" max="2218" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2219" max="2219" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2220" max="2220" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2221" max="2221" width="16.28515625" customWidth="1"/>
+    <col min="2465" max="2465" width="5" bestFit="1" customWidth="1"/>
+    <col min="2466" max="2466" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2467" max="2467" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2468" max="2468" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2469" max="2469" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2470" max="2470" width="7" bestFit="1" customWidth="1"/>
+    <col min="2471" max="2471" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2472" max="2472" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2473" max="2473" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2474" max="2474" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2475" max="2475" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2476" max="2476" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2477" max="2477" width="16.28515625" customWidth="1"/>
+    <col min="2721" max="2721" width="5" bestFit="1" customWidth="1"/>
+    <col min="2722" max="2722" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2723" max="2723" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2724" max="2724" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2725" max="2725" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2726" max="2726" width="7" bestFit="1" customWidth="1"/>
+    <col min="2727" max="2727" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2728" max="2728" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2729" max="2729" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2730" max="2730" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2731" max="2731" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2732" max="2732" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2733" max="2733" width="16.28515625" customWidth="1"/>
+    <col min="2977" max="2977" width="5" bestFit="1" customWidth="1"/>
+    <col min="2978" max="2978" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2979" max="2979" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2980" max="2980" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2981" max="2981" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2982" max="2982" width="7" bestFit="1" customWidth="1"/>
+    <col min="2983" max="2983" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2984" max="2984" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2985" max="2985" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2986" max="2986" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2987" max="2987" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2988" max="2988" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2989" max="2989" width="16.28515625" customWidth="1"/>
+    <col min="3233" max="3233" width="5" bestFit="1" customWidth="1"/>
+    <col min="3234" max="3234" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3235" max="3235" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3236" max="3236" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3237" max="3237" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3238" max="3238" width="7" bestFit="1" customWidth="1"/>
+    <col min="3239" max="3239" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3240" max="3240" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3241" max="3241" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3242" max="3242" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3243" max="3243" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3244" max="3244" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3245" max="3245" width="16.28515625" customWidth="1"/>
+    <col min="3489" max="3489" width="5" bestFit="1" customWidth="1"/>
+    <col min="3490" max="3490" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3491" max="3491" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3492" max="3492" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3493" max="3493" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3494" max="3494" width="7" bestFit="1" customWidth="1"/>
+    <col min="3495" max="3495" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3496" max="3496" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3497" max="3497" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3498" max="3498" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3499" max="3499" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3500" max="3500" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3501" max="3501" width="16.28515625" customWidth="1"/>
+    <col min="3745" max="3745" width="5" bestFit="1" customWidth="1"/>
+    <col min="3746" max="3746" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3747" max="3747" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3748" max="3748" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3749" max="3749" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3750" max="3750" width="7" bestFit="1" customWidth="1"/>
+    <col min="3751" max="3751" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3752" max="3752" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3753" max="3753" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3754" max="3754" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3755" max="3755" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3756" max="3756" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3757" max="3757" width="16.28515625" customWidth="1"/>
+    <col min="4001" max="4001" width="5" bestFit="1" customWidth="1"/>
+    <col min="4002" max="4002" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4003" max="4003" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4004" max="4004" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4005" max="4005" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4006" max="4006" width="7" bestFit="1" customWidth="1"/>
+    <col min="4007" max="4007" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4008" max="4008" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4009" max="4009" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4010" max="4010" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4011" max="4011" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4012" max="4012" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4013" max="4013" width="16.28515625" customWidth="1"/>
+    <col min="4257" max="4257" width="5" bestFit="1" customWidth="1"/>
+    <col min="4258" max="4258" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4259" max="4259" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4260" max="4260" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4261" max="4261" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4262" max="4262" width="7" bestFit="1" customWidth="1"/>
+    <col min="4263" max="4263" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4264" max="4264" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4265" max="4265" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4266" max="4266" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4267" max="4267" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4268" max="4268" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4269" max="4269" width="16.28515625" customWidth="1"/>
+    <col min="4513" max="4513" width="5" bestFit="1" customWidth="1"/>
+    <col min="4514" max="4514" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4515" max="4515" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4516" max="4516" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4517" max="4517" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4518" max="4518" width="7" bestFit="1" customWidth="1"/>
+    <col min="4519" max="4519" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4520" max="4520" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4521" max="4521" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4522" max="4522" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4523" max="4523" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4524" max="4524" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4525" max="4525" width="16.28515625" customWidth="1"/>
+    <col min="4769" max="4769" width="5" bestFit="1" customWidth="1"/>
+    <col min="4770" max="4770" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4771" max="4771" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4772" max="4772" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4773" max="4773" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4774" max="4774" width="7" bestFit="1" customWidth="1"/>
+    <col min="4775" max="4775" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4776" max="4776" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4777" max="4777" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4778" max="4778" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4779" max="4779" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4780" max="4780" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4781" max="4781" width="16.28515625" customWidth="1"/>
+    <col min="5025" max="5025" width="5" bestFit="1" customWidth="1"/>
+    <col min="5026" max="5026" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5027" max="5027" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5028" max="5028" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5029" max="5029" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5030" max="5030" width="7" bestFit="1" customWidth="1"/>
+    <col min="5031" max="5031" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5032" max="5032" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5033" max="5033" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5034" max="5034" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5035" max="5035" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5036" max="5036" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5037" max="5037" width="16.28515625" customWidth="1"/>
+    <col min="5281" max="5281" width="5" bestFit="1" customWidth="1"/>
+    <col min="5282" max="5282" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5283" max="5283" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5284" max="5284" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5285" max="5285" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5286" max="5286" width="7" bestFit="1" customWidth="1"/>
+    <col min="5287" max="5287" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5288" max="5288" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5289" max="5289" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5290" max="5290" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5291" max="5291" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5292" max="5292" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5293" max="5293" width="16.28515625" customWidth="1"/>
+    <col min="5537" max="5537" width="5" bestFit="1" customWidth="1"/>
+    <col min="5538" max="5538" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5539" max="5539" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5540" max="5540" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5541" max="5541" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5542" max="5542" width="7" bestFit="1" customWidth="1"/>
+    <col min="5543" max="5543" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5544" max="5544" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5545" max="5545" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5546" max="5546" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5547" max="5547" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5548" max="5548" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5549" max="5549" width="16.28515625" customWidth="1"/>
+    <col min="5793" max="5793" width="5" bestFit="1" customWidth="1"/>
+    <col min="5794" max="5794" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5795" max="5795" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5796" max="5796" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5797" max="5797" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5798" max="5798" width="7" bestFit="1" customWidth="1"/>
+    <col min="5799" max="5799" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5800" max="5800" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5801" max="5801" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5802" max="5802" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5803" max="5803" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5804" max="5804" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5805" max="5805" width="16.28515625" customWidth="1"/>
+    <col min="6049" max="6049" width="5" bestFit="1" customWidth="1"/>
+    <col min="6050" max="6050" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6051" max="6051" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6052" max="6052" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6053" max="6053" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6054" max="6054" width="7" bestFit="1" customWidth="1"/>
+    <col min="6055" max="6055" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6056" max="6056" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6057" max="6057" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6058" max="6058" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6059" max="6059" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6060" max="6060" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6061" max="6061" width="16.28515625" customWidth="1"/>
+    <col min="6305" max="6305" width="5" bestFit="1" customWidth="1"/>
+    <col min="6306" max="6306" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6307" max="6307" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6308" max="6308" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6309" max="6309" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6310" max="6310" width="7" bestFit="1" customWidth="1"/>
+    <col min="6311" max="6311" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6312" max="6312" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6313" max="6313" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6314" max="6314" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6315" max="6315" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6316" max="6316" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6317" max="6317" width="16.28515625" customWidth="1"/>
+    <col min="6561" max="6561" width="5" bestFit="1" customWidth="1"/>
+    <col min="6562" max="6562" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6563" max="6563" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6564" max="6564" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6565" max="6565" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6566" max="6566" width="7" bestFit="1" customWidth="1"/>
+    <col min="6567" max="6567" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6568" max="6568" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6569" max="6569" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6570" max="6570" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6571" max="6571" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6572" max="6572" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6573" max="6573" width="16.28515625" customWidth="1"/>
+    <col min="6817" max="6817" width="5" bestFit="1" customWidth="1"/>
+    <col min="6818" max="6818" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6819" max="6819" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6820" max="6820" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6821" max="6821" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6822" max="6822" width="7" bestFit="1" customWidth="1"/>
+    <col min="6823" max="6823" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6824" max="6824" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6825" max="6825" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6826" max="6826" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6827" max="6827" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6828" max="6828" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6829" max="6829" width="16.28515625" customWidth="1"/>
+    <col min="7073" max="7073" width="5" bestFit="1" customWidth="1"/>
+    <col min="7074" max="7074" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7075" max="7075" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7076" max="7076" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7077" max="7077" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7078" max="7078" width="7" bestFit="1" customWidth="1"/>
+    <col min="7079" max="7079" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7080" max="7080" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7081" max="7081" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7082" max="7082" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7083" max="7083" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7084" max="7084" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7085" max="7085" width="16.28515625" customWidth="1"/>
+    <col min="7329" max="7329" width="5" bestFit="1" customWidth="1"/>
+    <col min="7330" max="7330" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7331" max="7331" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7332" max="7332" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7333" max="7333" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7334" max="7334" width="7" bestFit="1" customWidth="1"/>
+    <col min="7335" max="7335" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7336" max="7336" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7337" max="7337" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7338" max="7338" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7339" max="7339" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7340" max="7340" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7341" max="7341" width="16.28515625" customWidth="1"/>
+    <col min="7585" max="7585" width="5" bestFit="1" customWidth="1"/>
+    <col min="7586" max="7586" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7587" max="7587" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7588" max="7588" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7589" max="7589" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7590" max="7590" width="7" bestFit="1" customWidth="1"/>
+    <col min="7591" max="7591" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7592" max="7592" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7593" max="7593" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7594" max="7594" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7595" max="7595" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7596" max="7596" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7597" max="7597" width="16.28515625" customWidth="1"/>
+    <col min="7841" max="7841" width="5" bestFit="1" customWidth="1"/>
+    <col min="7842" max="7842" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7843" max="7843" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7844" max="7844" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7845" max="7845" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7846" max="7846" width="7" bestFit="1" customWidth="1"/>
+    <col min="7847" max="7847" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7848" max="7848" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7849" max="7849" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7850" max="7850" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7851" max="7851" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7852" max="7852" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7853" max="7853" width="16.28515625" customWidth="1"/>
+    <col min="8097" max="8097" width="5" bestFit="1" customWidth="1"/>
+    <col min="8098" max="8098" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8099" max="8099" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8100" max="8100" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8101" max="8101" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8102" max="8102" width="7" bestFit="1" customWidth="1"/>
+    <col min="8103" max="8103" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8104" max="8104" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8105" max="8105" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8106" max="8106" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8107" max="8107" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8108" max="8108" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8109" max="8109" width="16.28515625" customWidth="1"/>
+    <col min="8353" max="8353" width="5" bestFit="1" customWidth="1"/>
+    <col min="8354" max="8354" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8355" max="8355" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8356" max="8356" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8357" max="8357" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8358" max="8358" width="7" bestFit="1" customWidth="1"/>
+    <col min="8359" max="8359" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8360" max="8360" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8361" max="8361" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8362" max="8362" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8363" max="8363" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8364" max="8364" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8365" max="8365" width="16.28515625" customWidth="1"/>
+    <col min="8609" max="8609" width="5" bestFit="1" customWidth="1"/>
+    <col min="8610" max="8610" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8611" max="8611" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8612" max="8612" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8613" max="8613" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8614" max="8614" width="7" bestFit="1" customWidth="1"/>
+    <col min="8615" max="8615" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8616" max="8616" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8617" max="8617" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8618" max="8618" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8619" max="8619" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8620" max="8620" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8621" max="8621" width="16.28515625" customWidth="1"/>
+    <col min="8865" max="8865" width="5" bestFit="1" customWidth="1"/>
+    <col min="8866" max="8866" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8867" max="8867" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8868" max="8868" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8869" max="8869" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8870" max="8870" width="7" bestFit="1" customWidth="1"/>
+    <col min="8871" max="8871" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8872" max="8872" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8873" max="8873" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8874" max="8874" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8875" max="8875" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8876" max="8876" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8877" max="8877" width="16.28515625" customWidth="1"/>
+    <col min="9121" max="9121" width="5" bestFit="1" customWidth="1"/>
+    <col min="9122" max="9122" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9123" max="9123" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9124" max="9124" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9125" max="9125" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9126" max="9126" width="7" bestFit="1" customWidth="1"/>
+    <col min="9127" max="9127" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9128" max="9128" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9129" max="9129" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9130" max="9130" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9131" max="9131" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9132" max="9132" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9133" max="9133" width="16.28515625" customWidth="1"/>
+    <col min="9377" max="9377" width="5" bestFit="1" customWidth="1"/>
+    <col min="9378" max="9378" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9379" max="9379" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9380" max="9380" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9381" max="9381" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9382" max="9382" width="7" bestFit="1" customWidth="1"/>
+    <col min="9383" max="9383" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9384" max="9384" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9385" max="9385" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9386" max="9386" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9387" max="9387" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9388" max="9388" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9389" max="9389" width="16.28515625" customWidth="1"/>
+    <col min="9633" max="9633" width="5" bestFit="1" customWidth="1"/>
+    <col min="9634" max="9634" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9635" max="9635" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9636" max="9636" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9637" max="9637" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9638" max="9638" width="7" bestFit="1" customWidth="1"/>
+    <col min="9639" max="9639" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9640" max="9640" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9641" max="9641" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9642" max="9642" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9643" max="9643" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9644" max="9644" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9645" max="9645" width="16.28515625" customWidth="1"/>
+    <col min="9889" max="9889" width="5" bestFit="1" customWidth="1"/>
+    <col min="9890" max="9890" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9891" max="9891" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9892" max="9892" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9893" max="9893" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9894" max="9894" width="7" bestFit="1" customWidth="1"/>
+    <col min="9895" max="9895" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9896" max="9896" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9897" max="9897" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9898" max="9898" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9899" max="9899" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9900" max="9900" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9901" max="9901" width="16.28515625" customWidth="1"/>
+    <col min="10145" max="10145" width="5" bestFit="1" customWidth="1"/>
+    <col min="10146" max="10146" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10147" max="10147" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10148" max="10148" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10149" max="10149" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10150" max="10150" width="7" bestFit="1" customWidth="1"/>
+    <col min="10151" max="10151" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10152" max="10152" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10153" max="10153" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10154" max="10154" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10155" max="10155" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10156" max="10156" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10157" max="10157" width="16.28515625" customWidth="1"/>
+    <col min="10401" max="10401" width="5" bestFit="1" customWidth="1"/>
+    <col min="10402" max="10402" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10403" max="10403" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10404" max="10404" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10405" max="10405" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10406" max="10406" width="7" bestFit="1" customWidth="1"/>
+    <col min="10407" max="10407" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10408" max="10408" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10409" max="10409" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10410" max="10410" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10411" max="10411" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10412" max="10412" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10413" max="10413" width="16.28515625" customWidth="1"/>
+    <col min="10657" max="10657" width="5" bestFit="1" customWidth="1"/>
+    <col min="10658" max="10658" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10659" max="10659" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10660" max="10660" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10661" max="10661" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10662" max="10662" width="7" bestFit="1" customWidth="1"/>
+    <col min="10663" max="10663" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10664" max="10664" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10665" max="10665" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10666" max="10666" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10667" max="10667" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10668" max="10668" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10669" max="10669" width="16.28515625" customWidth="1"/>
+    <col min="10913" max="10913" width="5" bestFit="1" customWidth="1"/>
+    <col min="10914" max="10914" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10915" max="10915" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10916" max="10916" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10917" max="10917" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10918" max="10918" width="7" bestFit="1" customWidth="1"/>
+    <col min="10919" max="10919" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10920" max="10920" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10921" max="10921" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10922" max="10922" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10923" max="10923" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10924" max="10924" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10925" max="10925" width="16.28515625" customWidth="1"/>
+    <col min="11169" max="11169" width="5" bestFit="1" customWidth="1"/>
+    <col min="11170" max="11170" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11171" max="11171" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11172" max="11172" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11173" max="11173" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11174" max="11174" width="7" bestFit="1" customWidth="1"/>
+    <col min="11175" max="11175" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11176" max="11176" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11177" max="11177" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11178" max="11178" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11179" max="11179" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11180" max="11180" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11181" max="11181" width="16.28515625" customWidth="1"/>
+    <col min="11425" max="11425" width="5" bestFit="1" customWidth="1"/>
+    <col min="11426" max="11426" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11427" max="11427" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11428" max="11428" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11429" max="11429" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11430" max="11430" width="7" bestFit="1" customWidth="1"/>
+    <col min="11431" max="11431" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11432" max="11432" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11433" max="11433" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11434" max="11434" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11435" max="11435" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11436" max="11436" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11437" max="11437" width="16.28515625" customWidth="1"/>
+    <col min="11681" max="11681" width="5" bestFit="1" customWidth="1"/>
+    <col min="11682" max="11682" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11683" max="11683" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11684" max="11684" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11685" max="11685" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11686" max="11686" width="7" bestFit="1" customWidth="1"/>
+    <col min="11687" max="11687" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11688" max="11688" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11689" max="11689" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11690" max="11690" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11691" max="11691" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11692" max="11692" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11693" max="11693" width="16.28515625" customWidth="1"/>
+    <col min="11937" max="11937" width="5" bestFit="1" customWidth="1"/>
+    <col min="11938" max="11938" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11939" max="11939" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11940" max="11940" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11941" max="11941" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11942" max="11942" width="7" bestFit="1" customWidth="1"/>
+    <col min="11943" max="11943" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11944" max="11944" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11945" max="11945" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11946" max="11946" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11947" max="11947" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11948" max="11948" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11949" max="11949" width="16.28515625" customWidth="1"/>
+    <col min="12193" max="12193" width="5" bestFit="1" customWidth="1"/>
+    <col min="12194" max="12194" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12195" max="12195" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12196" max="12196" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12197" max="12197" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12198" max="12198" width="7" bestFit="1" customWidth="1"/>
+    <col min="12199" max="12199" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12200" max="12200" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12201" max="12201" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12202" max="12202" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12203" max="12203" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12204" max="12204" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12205" max="12205" width="16.28515625" customWidth="1"/>
+    <col min="12449" max="12449" width="5" bestFit="1" customWidth="1"/>
+    <col min="12450" max="12450" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12451" max="12451" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12452" max="12452" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12453" max="12453" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12454" max="12454" width="7" bestFit="1" customWidth="1"/>
+    <col min="12455" max="12455" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12456" max="12456" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12457" max="12457" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12458" max="12458" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12459" max="12459" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12460" max="12460" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12461" max="12461" width="16.28515625" customWidth="1"/>
+    <col min="12705" max="12705" width="5" bestFit="1" customWidth="1"/>
+    <col min="12706" max="12706" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12707" max="12707" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12708" max="12708" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12709" max="12709" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12710" max="12710" width="7" bestFit="1" customWidth="1"/>
+    <col min="12711" max="12711" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12712" max="12712" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12713" max="12713" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12714" max="12714" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12715" max="12715" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12716" max="12716" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12717" max="12717" width="16.28515625" customWidth="1"/>
+    <col min="12961" max="12961" width="5" bestFit="1" customWidth="1"/>
+    <col min="12962" max="12962" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12963" max="12963" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12964" max="12964" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12965" max="12965" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12966" max="12966" width="7" bestFit="1" customWidth="1"/>
+    <col min="12967" max="12967" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12968" max="12968" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12969" max="12969" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12970" max="12970" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12971" max="12971" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12972" max="12972" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12973" max="12973" width="16.28515625" customWidth="1"/>
+    <col min="13217" max="13217" width="5" bestFit="1" customWidth="1"/>
+    <col min="13218" max="13218" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13219" max="13219" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13220" max="13220" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13221" max="13221" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13222" max="13222" width="7" bestFit="1" customWidth="1"/>
+    <col min="13223" max="13223" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13224" max="13224" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13225" max="13225" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13226" max="13226" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13227" max="13227" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13228" max="13228" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13229" max="13229" width="16.28515625" customWidth="1"/>
+    <col min="13473" max="13473" width="5" bestFit="1" customWidth="1"/>
+    <col min="13474" max="13474" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13475" max="13475" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13476" max="13476" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13477" max="13477" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13478" max="13478" width="7" bestFit="1" customWidth="1"/>
+    <col min="13479" max="13479" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13480" max="13480" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13481" max="13481" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13482" max="13482" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13483" max="13483" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13484" max="13484" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13485" max="13485" width="16.28515625" customWidth="1"/>
+    <col min="13729" max="13729" width="5" bestFit="1" customWidth="1"/>
+    <col min="13730" max="13730" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13731" max="13731" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13732" max="13732" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13733" max="13733" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13734" max="13734" width="7" bestFit="1" customWidth="1"/>
+    <col min="13735" max="13735" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13736" max="13736" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13737" max="13737" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13738" max="13738" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13739" max="13739" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13740" max="13740" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13741" max="13741" width="16.28515625" customWidth="1"/>
+    <col min="13985" max="13985" width="5" bestFit="1" customWidth="1"/>
+    <col min="13986" max="13986" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13987" max="13987" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13988" max="13988" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13989" max="13989" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13990" max="13990" width="7" bestFit="1" customWidth="1"/>
+    <col min="13991" max="13991" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13992" max="13992" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13993" max="13993" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13994" max="13994" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13995" max="13995" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13996" max="13996" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13997" max="13997" width="16.28515625" customWidth="1"/>
+    <col min="14241" max="14241" width="5" bestFit="1" customWidth="1"/>
+    <col min="14242" max="14242" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14243" max="14243" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14244" max="14244" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14245" max="14245" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14246" max="14246" width="7" bestFit="1" customWidth="1"/>
+    <col min="14247" max="14247" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14248" max="14248" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14249" max="14249" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14250" max="14250" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14251" max="14251" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14252" max="14252" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14253" max="14253" width="16.28515625" customWidth="1"/>
+    <col min="14497" max="14497" width="5" bestFit="1" customWidth="1"/>
+    <col min="14498" max="14498" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14499" max="14499" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14500" max="14500" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14501" max="14501" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14502" max="14502" width="7" bestFit="1" customWidth="1"/>
+    <col min="14503" max="14503" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14504" max="14504" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14505" max="14505" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14506" max="14506" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14507" max="14507" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14508" max="14508" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14509" max="14509" width="16.28515625" customWidth="1"/>
+    <col min="14753" max="14753" width="5" bestFit="1" customWidth="1"/>
+    <col min="14754" max="14754" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14755" max="14755" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14756" max="14756" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14757" max="14757" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14758" max="14758" width="7" bestFit="1" customWidth="1"/>
+    <col min="14759" max="14759" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14760" max="14760" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14761" max="14761" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14762" max="14762" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14763" max="14763" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14764" max="14764" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14765" max="14765" width="16.28515625" customWidth="1"/>
+    <col min="15009" max="15009" width="5" bestFit="1" customWidth="1"/>
+    <col min="15010" max="15010" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15011" max="15011" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15012" max="15012" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15013" max="15013" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15014" max="15014" width="7" bestFit="1" customWidth="1"/>
+    <col min="15015" max="15015" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15016" max="15016" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15017" max="15017" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15018" max="15018" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15019" max="15019" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15020" max="15020" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15021" max="15021" width="16.28515625" customWidth="1"/>
+    <col min="15265" max="15265" width="5" bestFit="1" customWidth="1"/>
+    <col min="15266" max="15266" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15267" max="15267" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15268" max="15268" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15269" max="15269" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15270" max="15270" width="7" bestFit="1" customWidth="1"/>
+    <col min="15271" max="15271" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15272" max="15272" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15273" max="15273" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15274" max="15274" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15275" max="15275" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15276" max="15276" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15277" max="15277" width="16.28515625" customWidth="1"/>
+    <col min="15521" max="15521" width="5" bestFit="1" customWidth="1"/>
+    <col min="15522" max="15522" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15523" max="15523" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15524" max="15524" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15525" max="15525" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15526" max="15526" width="7" bestFit="1" customWidth="1"/>
+    <col min="15527" max="15527" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15528" max="15528" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15529" max="15529" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15530" max="15530" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15531" max="15531" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15532" max="15532" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15533" max="15533" width="16.28515625" customWidth="1"/>
+    <col min="15777" max="15777" width="5" bestFit="1" customWidth="1"/>
+    <col min="15778" max="15778" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15779" max="15779" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15780" max="15780" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15781" max="15781" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15782" max="15782" width="7" bestFit="1" customWidth="1"/>
+    <col min="15783" max="15783" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15784" max="15784" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15785" max="15785" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15786" max="15786" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15787" max="15787" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15788" max="15788" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15789" max="15789" width="16.28515625" customWidth="1"/>
+    <col min="16033" max="16033" width="5" bestFit="1" customWidth="1"/>
+    <col min="16034" max="16034" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16035" max="16035" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16036" max="16036" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16037" max="16037" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16038" max="16038" width="7" bestFit="1" customWidth="1"/>
+    <col min="16039" max="16039" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16040" max="16040" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16041" max="16041" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="16042" max="16042" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16043" max="16043" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16044" max="16044" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16045" max="16045" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2337,19 +1326,19 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -2361,20 +1350,20 @@
       <c r="C2" s="4">
         <v>2182.681</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="7">
-        <v>1.9419999999999999</v>
+        <v>-1.9419999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2400,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="7">
-        <v>2.8730000000000002</v>
+        <v>-2.8730000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>3.427</v>
+        <v>-3.427</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -8702,7 +7691,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8725,19 +7714,19 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -8747,14 +7736,14 @@
         <v>3</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="7">
-        <v>1.9419999999999999</v>
+        <v>-1.9419999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -8765,20 +7754,20 @@
       <c r="C3" s="4">
         <v>-5.7890000000002146</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="7">
-        <v>2.8730000000000002</v>
+        <v>-2.8730000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -8804,7 +7793,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>3.427</v>
+        <v>-3.427</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
